--- a/Plantilla_Resultado/devolución_106_10570024_MEGATIENDAS EXPRESS SOCORRO_CARTAGENA_.xlsx
+++ b/Plantilla_Resultado/devolución_106_10570024_MEGATIENDAS EXPRESS SOCORRO_CARTAGENA_.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -309,24 +309,24 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="114300" y="44450"/>
           <a:ext cx="1085850" cy="828675"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -766,19 +766,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1005153</t>
+          <t>1021370</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tornillo COMARRICO Clasica x 250g</t>
+          <t>Glina. JET Cookies&amp;Cream 18Plegx6undx50g</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -795,12 +795,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1005147</t>
+          <t>1033837</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Spaghetti COMARRICO Clasica x 1000g</t>
+          <t>Glina. JET Cookies&amp;Cream 6Plegx18unx50g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1001485</t>
+          <t>1034056</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Penne Rigate MONTICELLO x 500g</t>
+          <t>Glina. JET Cookies&amp;Cream EXH60Bjx2unx50g</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1345,6 +1345,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plantilla_Resultado/devolución_106_10570024_MEGATIENDAS EXPRESS SOCORRO_CARTAGENA_.xlsx
+++ b/Plantilla_Resultado/devolución_106_10570024_MEGATIENDAS EXPRESS SOCORRO_CARTAGENA_.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -309,24 +309,24 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="114300" y="44450"/>
           <a:ext cx="1085850" cy="828675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1345,6 +1345,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>